--- a/tabelaAnalise.xlsx
+++ b/tabelaAnalise.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8B2C927-A00B-40B0-BC51-A2489FC83208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbsni\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC001D0F-D526-487C-A63D-439DE2420DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -156,9 +161,6 @@
     <t>CMD'</t>
   </si>
   <si>
-    <t>COND</t>
-  </si>
-  <si>
     <t>Expressao</t>
   </si>
   <si>
@@ -184,14 +186,25 @@
   </si>
   <si>
     <t>Tipo</t>
+  </si>
+  <si>
+    <t>Cond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -219,19 +232,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -305,25 +305,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -350,13 +339,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -377,7 +364,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -673,18 +660,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="A8:AH9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="33" max="33" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -776,7 +764,7 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AG1" s="1" t="s">
@@ -786,7 +774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -877,20 +865,20 @@
       <c r="AD2" s="1">
         <v>-1</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="1">
         <v>-1</v>
       </c>
       <c r="AF2" s="1">
         <v>-1</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="1">
         <v>-1</v>
       </c>
       <c r="AH2" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -981,20 +969,20 @@
       <c r="AD3" s="1">
         <v>-1</v>
       </c>
-      <c r="AE3" s="5">
+      <c r="AE3" s="1">
         <v>-1</v>
       </c>
       <c r="AF3" s="1">
         <v>-1</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="1">
         <v>-1</v>
       </c>
       <c r="AH3" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1035,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
         <v>-1</v>
@@ -1082,23 +1070,23 @@
       <c r="AC4" s="1">
         <v>-1</v>
       </c>
-      <c r="AD4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="5">
+      <c r="AD4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="1">
         <v>-1</v>
       </c>
       <c r="AF4" s="1">
         <v>-1</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="1">
         <v>-1</v>
       </c>
       <c r="AH4" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1189,20 +1177,20 @@
       <c r="AD5" s="1">
         <v>6</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="1">
         <v>-1</v>
       </c>
       <c r="AF5" s="1">
         <v>-1</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="1">
         <v>-1</v>
       </c>
       <c r="AH5" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1293,124 +1281,124 @@
       <c r="AD6" s="1">
         <v>-1</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="1">
         <v>-1</v>
       </c>
       <c r="AF6" s="1">
         <v>-1</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="1">
         <v>-1</v>
       </c>
       <c r="AH6" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="X7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>-1</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="C7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1490,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AF8" s="1">
         <v>-1</v>
@@ -1514,31 +1502,31 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="1">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
       <c r="I9" s="1">
         <v>-1</v>
       </c>
@@ -1546,13 +1534,13 @@
         <v>-1</v>
       </c>
       <c r="K9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1">
         <v>-1</v>
       </c>
       <c r="M9" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N9" s="1">
         <v>-1</v>
@@ -1618,946 +1606,946 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>15</v>
-      </c>
-      <c r="I10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>14</v>
-      </c>
-      <c r="K10" s="4">
-        <v>15</v>
-      </c>
-      <c r="L10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>15</v>
-      </c>
-      <c r="N10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="R10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="V10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="W10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="X10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>15</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>-1</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AG10" s="9">
-        <v>-1</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+      <c r="K10" s="3">
+        <v>16</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>16</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>16</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>21</v>
+      </c>
+      <c r="P13" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>21</v>
+      </c>
+      <c r="R13" s="1">
+        <v>21</v>
+      </c>
+      <c r="S13" s="1">
+        <v>21</v>
+      </c>
+      <c r="T13" s="1">
+        <v>21</v>
+      </c>
+      <c r="U13" s="1">
+        <v>19</v>
+      </c>
+      <c r="V13" s="1">
+        <v>20</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>21</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>20</v>
-      </c>
-      <c r="P13" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>20</v>
-      </c>
-      <c r="R13" s="1">
-        <v>20</v>
-      </c>
-      <c r="S13" s="1">
-        <v>20</v>
-      </c>
-      <c r="T13" s="1">
-        <v>20</v>
-      </c>
-      <c r="U13" s="1">
-        <v>18</v>
-      </c>
-      <c r="V13" s="1">
-        <v>19</v>
-      </c>
-      <c r="W13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>20</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE13" s="5">
-        <v>20</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>21</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>25</v>
+      </c>
+      <c r="P15" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>25</v>
+      </c>
+      <c r="R15" s="2">
+        <v>25</v>
+      </c>
+      <c r="S15" s="2">
+        <v>25</v>
+      </c>
+      <c r="T15" s="2">
+        <v>25</v>
+      </c>
+      <c r="U15" s="2">
+        <v>25</v>
+      </c>
+      <c r="V15" s="2">
+        <v>25</v>
+      </c>
+      <c r="W15" s="2">
+        <v>23</v>
+      </c>
+      <c r="X15" s="2">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>25</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="3">
-        <v>24</v>
-      </c>
-      <c r="P15" s="3">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>24</v>
-      </c>
-      <c r="R15" s="3">
-        <v>24</v>
-      </c>
-      <c r="S15" s="3">
-        <v>24</v>
-      </c>
-      <c r="T15" s="3">
-        <v>24</v>
-      </c>
-      <c r="U15" s="3">
-        <v>24</v>
-      </c>
-      <c r="V15" s="3">
-        <v>24</v>
-      </c>
-      <c r="W15" s="3">
-        <v>22</v>
-      </c>
-      <c r="X15" s="3">
-        <v>23</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>24</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>24</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>28</v>
+      </c>
+      <c r="P17" s="3">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>28</v>
+      </c>
+      <c r="R17" s="3">
+        <v>28</v>
+      </c>
+      <c r="S17" s="3">
+        <v>28</v>
+      </c>
+      <c r="T17" s="3">
+        <v>28</v>
+      </c>
+      <c r="U17" s="3">
+        <v>28</v>
+      </c>
+      <c r="V17" s="3">
+        <v>28</v>
+      </c>
+      <c r="W17" s="3">
+        <v>28</v>
+      </c>
+      <c r="X17" s="3">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>27</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>28</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>28</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O17" s="4">
-        <v>27</v>
-      </c>
-      <c r="P17" s="4">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>27</v>
-      </c>
-      <c r="R17" s="4">
-        <v>27</v>
-      </c>
-      <c r="S17" s="4">
-        <v>27</v>
-      </c>
-      <c r="T17" s="4">
-        <v>27</v>
-      </c>
-      <c r="U17" s="4">
-        <v>27</v>
-      </c>
-      <c r="V17" s="4">
-        <v>27</v>
-      </c>
-      <c r="W17" s="4">
-        <v>27</v>
-      </c>
-      <c r="X17" s="4">
-        <v>27</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>26</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>27</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE17" s="7">
-        <v>27</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B19" s="1">
         <v>-1</v>
       </c>
@@ -2565,13 +2553,13 @@
         <v>-1</v>
       </c>
       <c r="D19" s="1">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="E19" s="1">
-        <v>38</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="1">
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="G19" s="1">
         <v>-1</v>
@@ -2601,20 +2589,20 @@
         <v>34</v>
       </c>
       <c r="P19" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>37</v>
+      </c>
+      <c r="R19" s="1">
         <v>32</v>
       </c>
-      <c r="Q19" s="1">
-        <v>33</v>
-      </c>
-      <c r="R19" s="1">
-        <v>31</v>
-      </c>
       <c r="S19" s="1">
+        <v>36</v>
+      </c>
+      <c r="T19" s="1">
         <v>35</v>
       </c>
-      <c r="T19" s="1">
-        <v>36</v>
-      </c>
       <c r="U19" s="1">
         <v>-1</v>
       </c>
@@ -2645,22 +2633,22 @@
       <c r="AD19" s="1">
         <v>-1</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AE19" s="1">
         <v>-1</v>
       </c>
       <c r="AF19" s="1">
         <v>-1</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG19" s="1">
         <v>-1</v>
       </c>
       <c r="AH19" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>-1</v>
@@ -2669,13 +2657,13 @@
         <v>-1</v>
       </c>
       <c r="D20" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1">
         <v>-1</v>
@@ -2749,20 +2737,71 @@
       <c r="AD20" s="1">
         <v>-1</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AE20" s="1">
         <v>-1</v>
       </c>
       <c r="AF20" s="1">
         <v>-1</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20" s="1">
         <v>-1</v>
       </c>
       <c r="AH20" s="1">
         <v>-1</v>
       </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AB26" s="8"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+    </row>
+    <row r="33" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+    </row>
+    <row r="34" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+    </row>
+    <row r="35" spans="31:32" x14ac:dyDescent="0.25">
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabelaAnalise.xlsx
+++ b/tabelaAnalise.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbsni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Vinício\UFU\7\CC\analisador-sintatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC001D0F-D526-487C-A63D-439DE2420DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CE741-6ED0-4E34-BE12-81905D5B4C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,7 +343,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,7 +663,7 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,55 +1023,55 @@
         <v>4</v>
       </c>
       <c r="N4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD4" s="9">
         <v>4</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="AD4" s="9">
-        <v>-1</v>
       </c>
       <c r="AE4" s="1">
         <v>-1</v>
@@ -2756,6 +2756,7 @@
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AB25" s="8"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
     </row>
